--- a/SINSONTE/MASIVA.xlsx
+++ b/SINSONTE/MASIVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CPSI-A\SINSONTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D67CC4-A229-4800-810A-AA84CFAE37D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9D40E1-937A-46FA-8E9C-922AF8B0D7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>TORRE</t>
   </si>
@@ -42,22 +42,31 @@
     <t>CORREO</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>JUAN PEREZ</t>
   </si>
   <si>
     <t>jperez@gmail.com</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>MARINA GARCIA</t>
   </si>
   <si>
     <t>mgarcia@yahoo.es</t>
+  </si>
+  <si>
+    <t>TORRE A</t>
+  </si>
+  <si>
+    <t>TORRE B</t>
+  </si>
+  <si>
+    <t>PISO</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -386,21 +395,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,53 +418,284 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1101</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>3101234567</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>3101234567</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>1101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>3102345678</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>3102345678</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>3102345678</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>3102345678</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>3102345678</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>3102345678</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>201</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3102345678</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>202</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>3102345678</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>203</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>3102345678</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>204</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>3102345678</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>205</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>3102345678</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>206</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>3102345678</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
+      </c>
+      <c r="B14">
+        <v>101</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>12345</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{E406B068-9F73-496D-8BA7-0E030F641F10}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{8963BBF2-B789-4CC0-9C6A-A649651A53E0}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E406B068-9F73-496D-8BA7-0E030F641F10}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{8963BBF2-B789-4CC0-9C6A-A649651A53E0}"/>
+    <hyperlink ref="F4:F7" r:id="rId3" display="mgarcia@yahoo.es" xr:uid="{612A02B2-EEC8-4855-A1ED-68DCE61ECF6F}"/>
+    <hyperlink ref="F8:F13" r:id="rId4" display="mgarcia@yahoo.es" xr:uid="{37AF6281-A0A4-4C28-864A-9C2D98597A49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
